--- a/IBK/excel/LC_ret_LC_result_0705_01.xlsx
+++ b/IBK/excel/LC_ret_LC_result_0705_01.xlsx
@@ -413,18 +413,18 @@
   </si>
   <si>
     <t>(SWIFT MT SENDER),</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>175419010025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,14 +433,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -485,12 +493,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -792,19 +801,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.625" customWidth="1"/>
-    <col min="3" max="3" width="74.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,1651 +829,1652 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
         <v>14.3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>93.3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>35.9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
         <v>77</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>92.9</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>92.9</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>87.6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
         <v>92.9</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
         <v>16.7</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>92.9</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>36.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
         <v>92.9</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
         <v>27.3</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>92.9</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>40.1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3">
         <v>14.3</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>18.2</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>92.3</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>41.6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3">
         <v>13.5</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>14.3</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>84.6</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>37.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2">
-        <v>0</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3">
         <v>13.5</v>
       </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3">
         <v>14.9</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>22.7</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>75</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>37.5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2">
-        <v>0</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3">
         <v>14.9</v>
       </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-      <c r="E70" s="2">
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3">
         <v>14.9</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="3">
         <v>22.7</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="3">
         <v>81.8</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="3">
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3">
         <v>14.9</v>
       </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2">
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3">
         <v>12.5</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="3">
         <v>22.7</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <v>91.7</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="3">
         <v>42.3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2">
-        <v>0</v>
-      </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2">
-        <v>0</v>
-      </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2">
-        <v>0</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3">
         <v>39.299999999999997</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="3">
         <v>13.1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3">
         <v>9</v>
       </c>
-      <c r="C97" s="2">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2">
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2">
-        <v>0</v>
-      </c>
-      <c r="C100" s="2">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2">
-        <v>0</v>
-      </c>
-      <c r="C103" s="2">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2">
-        <v>0</v>
-      </c>
-      <c r="C106" s="2">
-        <v>0</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3">
         <v>20</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="3">
         <v>91.7</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="3">
         <v>88.2</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="3">
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2">
-        <v>0</v>
-      </c>
-      <c r="C112" s="2">
-        <v>0</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2">
-        <v>0</v>
-      </c>
-      <c r="C115" s="2">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3">
         <v>3.8</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="3">
         <v>66.7</v>
       </c>
-      <c r="D118" s="2">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2">
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
         <v>23.5</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2">
-        <v>0</v>
-      </c>
-      <c r="C121" s="2">
-        <v>0</v>
-      </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2">
-        <v>0</v>
-      </c>
-      <c r="C124" s="2">
-        <v>0</v>
-      </c>
-      <c r="D124" s="2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3">
         <v>94.1</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="3">
         <v>31.4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2">
-        <v>0</v>
-      </c>
-      <c r="C127" s="2">
-        <v>0</v>
-      </c>
-      <c r="D127" s="2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0</v>
+      </c>
+      <c r="D127" s="3">
         <v>94.1</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="3">
         <v>31.4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2">
-        <v>0</v>
-      </c>
-      <c r="C130" s="2">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0</v>
+      </c>
+      <c r="D130" s="3">
         <v>92.9</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3">
         <v>4.3</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="3">
         <v>75</v>
       </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="2">
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
         <v>26.4</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2">
-        <v>0</v>
-      </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2">
-        <v>0</v>
-      </c>
-      <c r="C139" s="2">
-        <v>0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>0</v>
-      </c>
-      <c r="E139" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="3">
         <v>91.7</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="3">
         <v>71.400000000000006</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="3">
         <v>57.8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2">
-        <v>0</v>
-      </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+      <c r="D145" s="3">
         <v>92.3</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="3">
         <v>30.8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2">
-        <v>0</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0</v>
+      </c>
+      <c r="D148" s="3">
         <v>80</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="3">
         <v>26.7</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2">
-        <v>0</v>
-      </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5">
         <v>4.8</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="5">
         <v>11.5</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="5">
         <v>32.700000000000003</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="5">
         <v>16.3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>